--- a/io/input/tutorial_02_adenine_cycle.xlsx
+++ b/io/input/tutorial_02_adenine_cycle.xlsx
@@ -1,28 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Pablo Schnettle\Documents\GitHub\GRASP\io\input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE1AEC4-9E5F-4522-ABF7-5146C1B9C0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="stoic" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="rxns" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="mets" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="poolConst" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="thermo_ineq_constraints" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="thermoRxns" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="thermoMets" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="measRates" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="protData" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="metsData" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="kinetics1" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="general" sheetId="1" r:id="rId1"/>
+    <sheet name="stoic" sheetId="2" r:id="rId2"/>
+    <sheet name="rxns" sheetId="3" r:id="rId3"/>
+    <sheet name="mets" sheetId="4" r:id="rId4"/>
+    <sheet name="poolConst" sheetId="5" r:id="rId5"/>
+    <sheet name="thermo_ineq_constraints" sheetId="6" r:id="rId6"/>
+    <sheet name="thermoRxns" sheetId="7" r:id="rId7"/>
+    <sheet name="thermoMets" sheetId="8" r:id="rId8"/>
+    <sheet name="measRates" sheetId="9" r:id="rId9"/>
+    <sheet name="protData" sheetId="10" r:id="rId10"/>
+    <sheet name="metsData" sheetId="11" r:id="rId11"/>
+    <sheet name="kinetics1" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -33,314 +49,311 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="98">
   <si>
-    <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adenine_cycle2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rejection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fmincon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP solver (linprog or gurobi)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gurobi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prior distribution for fluxes (uniform (default) or normal)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uniform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform (default) or normal)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of model structures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of models</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Final tolerance (in the case of GRASP, set to 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">atp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acCoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ppi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pyr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transport reaction?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isoenzymes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S-acetyl coenzyme A synthetase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adenylate kinase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pyruvate kinase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metabolite ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolite name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">balanced?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acetate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pyrophosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phosphoenolpyruvate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pyruvate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rhs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">∆Gr'_min (kJ/mol)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">∆Gr'_max (kJ/mol)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min (M)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max (M)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp_ref_mean (ref)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp_ref_std (ref)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp1_mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp1_std</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp2_mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp2_std</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp3_mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp3_std</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp4_mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp4_std</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp5_mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp5_std</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction/enzyme ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp1_lb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp1_ub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp2_lb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp2_ub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp3_lb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp3_ub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp4_lb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp4_ub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp5_lb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp5_ub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kinetic mechanism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">substrate order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">promiscuous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inhibitors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">activators</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative effector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive effector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">allosteric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subunits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uniUni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This enzyme cannot be allosteric as it only has one active site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">randomBiBi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">atp amp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adp adp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Considered as a free flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This enzyme could be allosteric</t>
+    <t>General Reaction and Sampling Platform (GRASP)</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Model name</t>
+  </si>
+  <si>
+    <t>adenine_cycle2</t>
+  </si>
+  <si>
+    <t>Sampling mode (GRASP or rejection)</t>
+  </si>
+  <si>
+    <t>rejection</t>
+  </si>
+  <si>
+    <t>NLP solver (NLOPT or FMINCON (default))</t>
+  </si>
+  <si>
+    <t>fmincon</t>
+  </si>
+  <si>
+    <t>LP solver (linprog or gurobi)</t>
+  </si>
+  <si>
+    <t>gurobi</t>
+  </si>
+  <si>
+    <t>Prior distribution for fluxes (uniform (default) or normal)</t>
+  </si>
+  <si>
+    <t>uniform</t>
+  </si>
+  <si>
+    <t>Prior distribution for thermodynamic quantities (uniform (default) or normal)</t>
+  </si>
+  <si>
+    <t>Number of exp. conditions (excluding reference state)</t>
+  </si>
+  <si>
+    <t>Number of model structures</t>
+  </si>
+  <si>
+    <t>Number of models</t>
+  </si>
+  <si>
+    <t>Parallel mode (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t>Number of cores (ignored if Parallel mode disabled)</t>
+  </si>
+  <si>
+    <t>Compute robust fluxes (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t>Final tolerance (in the case of GRASP, set to 1)</t>
+  </si>
+  <si>
+    <t>rxn ID</t>
+  </si>
+  <si>
+    <t>atp</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>adp</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>coA</t>
+  </si>
+  <si>
+    <t>acCoa</t>
+  </si>
+  <si>
+    <t>ppi</t>
+  </si>
+  <si>
+    <t>pep</t>
+  </si>
+  <si>
+    <t>pyr</t>
+  </si>
+  <si>
+    <t>ACS</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>reaction ID</t>
+  </si>
+  <si>
+    <t>reaction name</t>
+  </si>
+  <si>
+    <t>transport reaction?</t>
+  </si>
+  <si>
+    <t>isoenzymes</t>
+  </si>
+  <si>
+    <t>S-acetyl coenzyme A synthetase</t>
+  </si>
+  <si>
+    <t>adenylate kinase</t>
+  </si>
+  <si>
+    <t>pyruvate kinase</t>
+  </si>
+  <si>
+    <t>metabolite ID</t>
+  </si>
+  <si>
+    <t>Metabolite name</t>
+  </si>
+  <si>
+    <t>balanced?</t>
+  </si>
+  <si>
+    <t>acetate</t>
+  </si>
+  <si>
+    <t>pyrophosphate</t>
+  </si>
+  <si>
+    <t>phosphoenolpyruvate</t>
+  </si>
+  <si>
+    <t>pyruvate</t>
+  </si>
+  <si>
+    <t>exp1</t>
+  </si>
+  <si>
+    <t>exp2</t>
+  </si>
+  <si>
+    <t>exp3</t>
+  </si>
+  <si>
+    <t>exp4</t>
+  </si>
+  <si>
+    <t>exp5</t>
+  </si>
+  <si>
+    <t>rhs</t>
+  </si>
+  <si>
+    <t>∆Gr'_min (kJ/mol)</t>
+  </si>
+  <si>
+    <t>∆Gr'_max (kJ/mol)</t>
+  </si>
+  <si>
+    <t>min (M)</t>
+  </si>
+  <si>
+    <t>max (M)</t>
+  </si>
+  <si>
+    <t>exp_ref_mean (ref)</t>
+  </si>
+  <si>
+    <t>exp_ref_std (ref)</t>
+  </si>
+  <si>
+    <t>exp1_mean</t>
+  </si>
+  <si>
+    <t>exp1_std</t>
+  </si>
+  <si>
+    <t>exp2_mean</t>
+  </si>
+  <si>
+    <t>exp2_std</t>
+  </si>
+  <si>
+    <t>exp3_mean</t>
+  </si>
+  <si>
+    <t>exp3_std</t>
+  </si>
+  <si>
+    <t>exp4_mean</t>
+  </si>
+  <si>
+    <t>exp4_std</t>
+  </si>
+  <si>
+    <t>exp5_mean</t>
+  </si>
+  <si>
+    <t>exp5_std</t>
+  </si>
+  <si>
+    <t>reaction/enzyme ID</t>
+  </si>
+  <si>
+    <t>exp1_lb</t>
+  </si>
+  <si>
+    <t>exp1_ub</t>
+  </si>
+  <si>
+    <t>exp2_lb</t>
+  </si>
+  <si>
+    <t>exp2_ub</t>
+  </si>
+  <si>
+    <t>exp3_lb</t>
+  </si>
+  <si>
+    <t>exp3_ub</t>
+  </si>
+  <si>
+    <t>exp4_lb</t>
+  </si>
+  <si>
+    <t>exp4_ub</t>
+  </si>
+  <si>
+    <t>exp5_lb</t>
+  </si>
+  <si>
+    <t>exp5_ub</t>
+  </si>
+  <si>
+    <t>kinetic mechanism</t>
+  </si>
+  <si>
+    <t>substrate order</t>
+  </si>
+  <si>
+    <t>product order</t>
+  </si>
+  <si>
+    <t>promiscuous</t>
+  </si>
+  <si>
+    <t>inhibitors</t>
+  </si>
+  <si>
+    <t>activators</t>
+  </si>
+  <si>
+    <t>negative effector</t>
+  </si>
+  <si>
+    <t>positive effector</t>
+  </si>
+  <si>
+    <t>allosteric</t>
+  </si>
+  <si>
+    <t>subunits</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>uniUni</t>
+  </si>
+  <si>
+    <t>This enzyme cannot be allosteric as it only has one active site</t>
+  </si>
+  <si>
+    <t>randomBiBi</t>
+  </si>
+  <si>
+    <t>atp amp</t>
+  </si>
+  <si>
+    <t>adp adp</t>
+  </si>
+  <si>
+    <t>Considered as a free flux</t>
+  </si>
+  <si>
+    <t>This enzyme could be allosteric</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
-    <numFmt numFmtId="166" formatCode="0.00E+00"/>
-    <numFmt numFmtId="167" formatCode="0.00000000"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -349,22 +362,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -379,7 +377,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -395,197 +393,446 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.6"/>
+    <col min="1" max="1" width="85" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="2" customWidth="1"/>
+    <col min="3" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -593,7 +840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -601,7 +848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -609,7 +856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -617,7 +864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -625,7 +872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" s="6" customFormat="true" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1144,7 +1391,7 @@
       <c r="AMH6" s="7"/>
       <c r="AMJ6" s="7"/>
     </row>
-    <row r="7" s="6" customFormat="true" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -1663,106 +1910,96 @@
       <c r="AMH7" s="7"/>
       <c r="AMJ7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="5" t="n">
+      <c r="B10" s="5">
         <v>12</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="5" t="n">
+      <c r="B12" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="5" t="n">
+      <c r="B14" s="5">
         <v>0.3</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="25" width="16.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="7.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="25" width="10.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="25" width="7.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="25" width="7.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="25" width="10.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="25" width="7.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="25" width="7.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="25" width="10.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="25" width="7.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="25" width="7.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="25" width="10.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="25" width="7.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="25" width="7.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="25" width="10.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="25" width="7.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="8.6"/>
+    <col min="1" max="1" width="16.85546875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="25" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="25" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="25" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" style="25" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="25" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="25" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="25" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="25" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" style="25" customWidth="1"/>
+    <col min="17" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>69</v>
       </c>
@@ -1812,200 +2049,190 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="27" t="n">
-        <v>1.00001</v>
-      </c>
-      <c r="E2" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="27" t="n">
-        <v>1.00001</v>
-      </c>
-      <c r="H2" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="27" t="n">
-        <v>1.00001</v>
-      </c>
-      <c r="K2" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="27" t="n">
-        <v>1.00001</v>
-      </c>
-      <c r="N2" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="27" t="n">
-        <v>1.00001</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="27">
+        <v>1</v>
+      </c>
+      <c r="C2" s="27">
+        <v>1</v>
+      </c>
+      <c r="D2" s="27">
+        <v>1.0000100000000001</v>
+      </c>
+      <c r="E2" s="27">
+        <v>1</v>
+      </c>
+      <c r="F2" s="27">
+        <v>1</v>
+      </c>
+      <c r="G2" s="27">
+        <v>1.0000100000000001</v>
+      </c>
+      <c r="H2" s="27">
+        <v>1</v>
+      </c>
+      <c r="I2" s="27">
+        <v>1</v>
+      </c>
+      <c r="J2" s="27">
+        <v>1.0000100000000001</v>
+      </c>
+      <c r="K2" s="27">
+        <v>1</v>
+      </c>
+      <c r="L2" s="27">
+        <v>1</v>
+      </c>
+      <c r="M2" s="27">
+        <v>1.0000100000000001</v>
+      </c>
+      <c r="N2" s="27">
+        <v>1</v>
+      </c>
+      <c r="O2" s="27">
+        <v>1</v>
+      </c>
+      <c r="P2" s="27">
+        <v>1.0000100000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="27" t="n">
-        <v>1.00001</v>
-      </c>
-      <c r="E3" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="27" t="n">
-        <v>1.00001</v>
-      </c>
-      <c r="H3" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="27" t="n">
-        <v>1.00001</v>
-      </c>
-      <c r="K3" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="27" t="n">
-        <v>1.00001</v>
-      </c>
-      <c r="N3" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="27" t="n">
-        <v>1.00001</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="27">
+        <v>1</v>
+      </c>
+      <c r="C3" s="27">
+        <v>1</v>
+      </c>
+      <c r="D3" s="27">
+        <v>1.0000100000000001</v>
+      </c>
+      <c r="E3" s="27">
+        <v>1</v>
+      </c>
+      <c r="F3" s="27">
+        <v>1</v>
+      </c>
+      <c r="G3" s="27">
+        <v>1.0000100000000001</v>
+      </c>
+      <c r="H3" s="27">
+        <v>1</v>
+      </c>
+      <c r="I3" s="27">
+        <v>1</v>
+      </c>
+      <c r="J3" s="27">
+        <v>1.0000100000000001</v>
+      </c>
+      <c r="K3" s="27">
+        <v>1</v>
+      </c>
+      <c r="L3" s="27">
+        <v>1</v>
+      </c>
+      <c r="M3" s="27">
+        <v>1.0000100000000001</v>
+      </c>
+      <c r="N3" s="27">
+        <v>1</v>
+      </c>
+      <c r="O3" s="27">
+        <v>1</v>
+      </c>
+      <c r="P3" s="27">
+        <v>1.0000100000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="27" t="n">
-        <v>1.00001</v>
-      </c>
-      <c r="E4" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="27" t="n">
-        <v>1.00001</v>
-      </c>
-      <c r="H4" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="27" t="n">
-        <v>1.00001</v>
-      </c>
-      <c r="K4" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="27" t="n">
-        <v>1.00001</v>
-      </c>
-      <c r="N4" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="27" t="n">
-        <v>1.00001</v>
+      <c r="B4" s="27">
+        <v>1</v>
+      </c>
+      <c r="C4" s="27">
+        <v>1</v>
+      </c>
+      <c r="D4" s="27">
+        <v>1.0000100000000001</v>
+      </c>
+      <c r="E4" s="27">
+        <v>1</v>
+      </c>
+      <c r="F4" s="27">
+        <v>1</v>
+      </c>
+      <c r="G4" s="27">
+        <v>1.0000100000000001</v>
+      </c>
+      <c r="H4" s="27">
+        <v>1</v>
+      </c>
+      <c r="I4" s="27">
+        <v>1</v>
+      </c>
+      <c r="J4" s="27">
+        <v>1.0000100000000001</v>
+      </c>
+      <c r="K4" s="27">
+        <v>1</v>
+      </c>
+      <c r="L4" s="27">
+        <v>1</v>
+      </c>
+      <c r="M4" s="27">
+        <v>1.0000100000000001</v>
+      </c>
+      <c r="N4" s="27">
+        <v>1</v>
+      </c>
+      <c r="O4" s="27">
+        <v>1</v>
+      </c>
+      <c r="P4" s="27">
+        <v>1.0000100000000001</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="25" width="11.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="7.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="25" width="10.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="25" width="7.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="25" width="7.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="25" width="10.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="25" width="7.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="25" width="7.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="25" width="10.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="25" width="7.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="25" width="7.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="25" width="10.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="25" width="7.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="25" width="7.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="25" width="10.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="25" width="7.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="8.6"/>
+    <col min="1" max="1" width="11.7109375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="25" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="25" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="25" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" style="25" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="25" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="25" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="25" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="25" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" style="25" customWidth="1"/>
+    <col min="17" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>40</v>
       </c>
@@ -2055,496 +2282,488 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="27" t="n">
+      <c r="B2" s="27">
         <v>0.01</v>
       </c>
-      <c r="C2" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="27" t="n">
+      <c r="C2" s="27">
+        <v>1</v>
+      </c>
+      <c r="D2" s="27">
         <v>100</v>
       </c>
-      <c r="E2" s="27" t="n">
+      <c r="E2" s="27">
         <v>0.01</v>
       </c>
-      <c r="F2" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="27" t="n">
+      <c r="F2" s="27">
+        <v>1</v>
+      </c>
+      <c r="G2" s="27">
         <v>100</v>
       </c>
-      <c r="H2" s="27" t="n">
+      <c r="H2" s="27">
         <v>0.01</v>
       </c>
-      <c r="I2" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="27" t="n">
+      <c r="I2" s="27">
+        <v>1</v>
+      </c>
+      <c r="J2" s="27">
         <v>100</v>
       </c>
-      <c r="K2" s="27" t="n">
+      <c r="K2" s="27">
         <v>0.01</v>
       </c>
-      <c r="L2" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="27" t="n">
+      <c r="L2" s="27">
+        <v>1</v>
+      </c>
+      <c r="M2" s="27">
         <v>100</v>
       </c>
-      <c r="N2" s="27" t="n">
+      <c r="N2" s="27">
         <v>0.01</v>
       </c>
-      <c r="O2" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="27" t="n">
+      <c r="O2" s="27">
+        <v>1</v>
+      </c>
+      <c r="P2" s="27">
         <v>100</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="27" t="n">
+      <c r="B3" s="27">
         <v>0.01</v>
       </c>
-      <c r="C3" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="27" t="n">
+      <c r="C3" s="27">
+        <v>1</v>
+      </c>
+      <c r="D3" s="27">
         <v>100</v>
       </c>
-      <c r="E3" s="27" t="n">
+      <c r="E3" s="27">
         <v>0.01</v>
       </c>
-      <c r="F3" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="27" t="n">
+      <c r="F3" s="27">
+        <v>1</v>
+      </c>
+      <c r="G3" s="27">
         <v>100</v>
       </c>
-      <c r="H3" s="27" t="n">
+      <c r="H3" s="27">
         <v>0.01</v>
       </c>
-      <c r="I3" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="27" t="n">
+      <c r="I3" s="27">
+        <v>1</v>
+      </c>
+      <c r="J3" s="27">
         <v>100</v>
       </c>
-      <c r="K3" s="27" t="n">
+      <c r="K3" s="27">
         <v>0.01</v>
       </c>
-      <c r="L3" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="27" t="n">
+      <c r="L3" s="27">
+        <v>1</v>
+      </c>
+      <c r="M3" s="27">
         <v>100</v>
       </c>
-      <c r="N3" s="27" t="n">
+      <c r="N3" s="27">
         <v>0.01</v>
       </c>
-      <c r="O3" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="27" t="n">
+      <c r="O3" s="27">
+        <v>1</v>
+      </c>
+      <c r="P3" s="27">
         <v>100</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="27" t="n">
+      <c r="B4" s="27">
         <v>0.01</v>
       </c>
-      <c r="C4" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="27" t="n">
+      <c r="C4" s="27">
+        <v>1</v>
+      </c>
+      <c r="D4" s="27">
         <v>100</v>
       </c>
-      <c r="E4" s="27" t="n">
+      <c r="E4" s="27">
         <v>0.01</v>
       </c>
-      <c r="F4" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="27" t="n">
+      <c r="F4" s="27">
+        <v>1</v>
+      </c>
+      <c r="G4" s="27">
         <v>100</v>
       </c>
-      <c r="H4" s="27" t="n">
+      <c r="H4" s="27">
         <v>0.01</v>
       </c>
-      <c r="I4" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="27" t="n">
+      <c r="I4" s="27">
+        <v>1</v>
+      </c>
+      <c r="J4" s="27">
         <v>100</v>
       </c>
-      <c r="K4" s="27" t="n">
+      <c r="K4" s="27">
         <v>0.01</v>
       </c>
-      <c r="L4" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="27" t="n">
+      <c r="L4" s="27">
+        <v>1</v>
+      </c>
+      <c r="M4" s="27">
         <v>100</v>
       </c>
-      <c r="N4" s="27" t="n">
+      <c r="N4" s="27">
         <v>0.01</v>
       </c>
-      <c r="O4" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="27" t="n">
+      <c r="O4" s="27">
+        <v>1</v>
+      </c>
+      <c r="P4" s="27">
         <v>100</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="27">
+        <v>1</v>
+      </c>
+      <c r="C5" s="27">
+        <v>1</v>
+      </c>
+      <c r="D5" s="27">
+        <v>1</v>
+      </c>
+      <c r="E5" s="27">
+        <v>1</v>
+      </c>
+      <c r="F5" s="27">
+        <v>1</v>
+      </c>
+      <c r="G5" s="27">
+        <v>1</v>
+      </c>
+      <c r="H5" s="27">
+        <v>1</v>
+      </c>
+      <c r="I5" s="27">
+        <v>1</v>
+      </c>
+      <c r="J5" s="27">
+        <v>1</v>
+      </c>
+      <c r="K5" s="27">
+        <v>1</v>
+      </c>
+      <c r="L5" s="27">
+        <v>1</v>
+      </c>
+      <c r="M5" s="27">
+        <v>1</v>
+      </c>
+      <c r="N5" s="27">
+        <v>1</v>
+      </c>
+      <c r="O5" s="27">
+        <v>1</v>
+      </c>
+      <c r="P5" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="27">
+        <v>1</v>
+      </c>
+      <c r="C6" s="27">
+        <v>1</v>
+      </c>
+      <c r="D6" s="27">
+        <v>1</v>
+      </c>
+      <c r="E6" s="27">
+        <v>1</v>
+      </c>
+      <c r="F6" s="27">
+        <v>1</v>
+      </c>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="27">
+        <v>1</v>
+      </c>
+      <c r="I6" s="27">
+        <v>1</v>
+      </c>
+      <c r="J6" s="27">
+        <v>1</v>
+      </c>
+      <c r="K6" s="27">
+        <v>1</v>
+      </c>
+      <c r="L6" s="27">
+        <v>1</v>
+      </c>
+      <c r="M6" s="27">
+        <v>1</v>
+      </c>
+      <c r="N6" s="27">
+        <v>1</v>
+      </c>
+      <c r="O6" s="27">
+        <v>1</v>
+      </c>
+      <c r="P6" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="27">
+        <v>1</v>
+      </c>
+      <c r="C7" s="27">
+        <v>1</v>
+      </c>
+      <c r="D7" s="27">
+        <v>1</v>
+      </c>
+      <c r="E7" s="27">
+        <v>1</v>
+      </c>
+      <c r="F7" s="27">
+        <v>1</v>
+      </c>
+      <c r="G7" s="27">
+        <v>1</v>
+      </c>
+      <c r="H7" s="27">
+        <v>1</v>
+      </c>
+      <c r="I7" s="27">
+        <v>1</v>
+      </c>
+      <c r="J7" s="27">
+        <v>1</v>
+      </c>
+      <c r="K7" s="27">
+        <v>1</v>
+      </c>
+      <c r="L7" s="27">
+        <v>1</v>
+      </c>
+      <c r="M7" s="27">
+        <v>1</v>
+      </c>
+      <c r="N7" s="27">
+        <v>1</v>
+      </c>
+      <c r="O7" s="27">
+        <v>1</v>
+      </c>
+      <c r="P7" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" s="27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="27">
+        <v>1</v>
+      </c>
+      <c r="C8" s="27">
+        <v>1</v>
+      </c>
+      <c r="D8" s="27">
+        <v>1</v>
+      </c>
+      <c r="E8" s="27">
+        <v>1</v>
+      </c>
+      <c r="F8" s="27">
+        <v>1</v>
+      </c>
+      <c r="G8" s="27">
+        <v>1</v>
+      </c>
+      <c r="H8" s="27">
+        <v>1</v>
+      </c>
+      <c r="I8" s="27">
+        <v>1</v>
+      </c>
+      <c r="J8" s="27">
+        <v>1</v>
+      </c>
+      <c r="K8" s="27">
+        <v>1</v>
+      </c>
+      <c r="L8" s="27">
+        <v>1</v>
+      </c>
+      <c r="M8" s="27">
+        <v>1</v>
+      </c>
+      <c r="N8" s="27">
+        <v>1</v>
+      </c>
+      <c r="O8" s="27">
+        <v>1</v>
+      </c>
+      <c r="P8" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="27">
+        <v>1</v>
+      </c>
+      <c r="C9" s="27">
+        <v>1</v>
+      </c>
+      <c r="D9" s="27">
+        <v>1</v>
+      </c>
+      <c r="E9" s="27">
+        <v>1</v>
+      </c>
+      <c r="F9" s="27">
+        <v>1</v>
+      </c>
+      <c r="G9" s="27">
+        <v>1</v>
+      </c>
+      <c r="H9" s="27">
+        <v>1</v>
+      </c>
+      <c r="I9" s="27">
+        <v>1</v>
+      </c>
+      <c r="J9" s="27">
+        <v>1</v>
+      </c>
+      <c r="K9" s="27">
+        <v>1</v>
+      </c>
+      <c r="L9" s="27">
+        <v>1</v>
+      </c>
+      <c r="M9" s="27">
+        <v>1</v>
+      </c>
+      <c r="N9" s="27">
+        <v>1</v>
+      </c>
+      <c r="O9" s="27">
+        <v>1</v>
+      </c>
+      <c r="P9" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" s="27" t="n">
+      <c r="B10" s="27">
+        <v>1</v>
+      </c>
+      <c r="C10" s="27">
+        <v>1</v>
+      </c>
+      <c r="D10" s="27">
+        <v>1</v>
+      </c>
+      <c r="E10" s="27">
+        <v>1</v>
+      </c>
+      <c r="F10" s="27">
+        <v>1</v>
+      </c>
+      <c r="G10" s="27">
+        <v>1</v>
+      </c>
+      <c r="H10" s="27">
+        <v>1</v>
+      </c>
+      <c r="I10" s="27">
+        <v>1</v>
+      </c>
+      <c r="J10" s="27">
+        <v>1</v>
+      </c>
+      <c r="K10" s="27">
+        <v>1</v>
+      </c>
+      <c r="L10" s="27">
+        <v>1</v>
+      </c>
+      <c r="M10" s="27">
+        <v>1</v>
+      </c>
+      <c r="N10" s="27">
+        <v>1</v>
+      </c>
+      <c r="O10" s="27">
+        <v>1</v>
+      </c>
+      <c r="P10" s="27">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="9.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="15.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="11.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="11.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="8.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="8" width="8.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="8" width="14.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="8" width="14.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="8" width="8.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="8" width="7.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="8" width="48.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.6"/>
+    <col min="1" max="1" width="9.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12" style="8" customWidth="1"/>
+    <col min="5" max="5" width="11" style="8" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="8" style="8" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="48.7109375" style="8" customWidth="1"/>
+    <col min="13" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>33</v>
       </c>
@@ -2582,7 +2801,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -2600,17 +2819,17 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2" t="n">
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
         <v>2</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -2628,17 +2847,17 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2" t="n">
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
         <v>0</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
@@ -2656,10 +2875,10 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2" t="n">
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
         <v>2</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -2667,43 +2886,35 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="5.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="3.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="4.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="3.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="2.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="3.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="8" width="5.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="8" width="3.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="8" width="3.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="8" width="3.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.6"/>
+    <col min="1" max="1" width="5.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="3.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="2.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="3.28515625" style="8" customWidth="1"/>
+    <col min="11" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -2735,99 +2946,99 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="8">
         <v>-1</v>
       </c>
-      <c r="C2" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8" t="n">
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
         <v>-1</v>
       </c>
-      <c r="F2" s="8" t="n">
+      <c r="F2" s="8">
         <v>-1</v>
       </c>
-      <c r="G2" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G2" s="8">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="8">
         <v>-1</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="8">
         <v>-1</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="8">
         <v>2</v>
       </c>
-      <c r="E3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8" t="n">
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
         <v>-1</v>
       </c>
-      <c r="E4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8" t="n">
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
         <v>-1</v>
       </c>
-      <c r="J4" s="8" t="n">
+      <c r="J4" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2835,46 +3046,38 @@
   <conditionalFormatting sqref="B2:J4">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AMK4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="9.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="25.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="16.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="10.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="8" width="8.6"/>
+    <col min="1" max="1" width="9.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="26" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="8" customWidth="1"/>
+    <col min="5" max="1025" width="8.5703125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>33</v>
       </c>
@@ -2888,74 +3091,66 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="2">
         <v>0</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="2">
         <v>0</v>
       </c>
       <c r="D4" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="11.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="18.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="8.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1017" min="4" style="0" width="8.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1018" style="0" width="8.67"/>
+    <col min="1" max="1" width="11.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="18" style="8" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="8" customWidth="1"/>
+    <col min="4" max="1017" width="8.5703125" customWidth="1"/>
+    <col min="1018" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>40</v>
       </c>
@@ -2966,135 +3161,127 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="6.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.6"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>40</v>
       </c>
@@ -3114,176 +3301,168 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="11" t="n">
-        <v>0.1412</v>
-      </c>
-      <c r="C8" s="11" t="n">
-        <v>0.3646</v>
-      </c>
-      <c r="D8" s="11" t="n">
-        <v>0.5174</v>
-      </c>
-      <c r="E8" s="11" t="n">
-        <v>3.7259</v>
-      </c>
-      <c r="F8" s="11" t="n">
-        <v>5.0613</v>
+      <c r="B8" s="11">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.36459999999999998</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.51739999999999997</v>
+      </c>
+      <c r="E8" s="11">
+        <v>3.7259000000000002</v>
+      </c>
+      <c r="F8" s="11">
+        <v>5.0613000000000001</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="4.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.6"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="6" width="4.5703125" customWidth="1"/>
+    <col min="7" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>40</v>
       </c>
@@ -3303,72 +3482,64 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.6"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -3379,69 +3550,59 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="15" t="n">
+      <c r="B2" s="15">
         <v>3.2</v>
       </c>
-      <c r="C2" s="15" t="n">
+      <c r="C2" s="15">
         <v>3.2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="15" t="n">
+      <c r="B3" s="15">
         <v>-2.6</v>
       </c>
-      <c r="C3" s="15" t="n">
+      <c r="C3" s="15">
         <v>-2.6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="15" t="n">
+      <c r="B4" s="15">
         <v>-27.7</v>
       </c>
-      <c r="C4" s="15" t="n">
+      <c r="C4" s="15">
         <v>-27.7</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="7.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.6"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>40</v>
       </c>
@@ -3452,150 +3613,142 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="17" t="n">
-        <v>0.0001705</v>
-      </c>
-      <c r="C2" s="17" t="n">
-        <v>0.0001705</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="17">
+        <v>1.705E-4</v>
+      </c>
+      <c r="C2" s="17">
+        <v>1.705E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="17" t="n">
-        <v>1.4E-006</v>
-      </c>
-      <c r="C3" s="17" t="n">
-        <v>1.4E-006</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="17">
+        <v>1.3999999999999999E-6</v>
+      </c>
+      <c r="C3" s="17">
+        <v>1.3999999999999999E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="17" t="n">
-        <v>3.65E-006</v>
-      </c>
-      <c r="C4" s="17" t="n">
-        <v>3.65E-006</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="17">
+        <v>3.6500000000000002E-6</v>
+      </c>
+      <c r="C4" s="17">
+        <v>3.6500000000000002E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="18" t="n">
-        <f aca="false">0.01</f>
+      <c r="B5" s="18">
+        <f>0.01</f>
         <v>0.01</v>
       </c>
-      <c r="C5" s="18" t="n">
-        <f aca="false">0.01</f>
+      <c r="C5" s="18">
+        <f>0.01</f>
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="18" t="n">
-        <f aca="false">0.0006</f>
-        <v>0.0006</v>
-      </c>
-      <c r="C6" s="18" t="n">
-        <f aca="false">0.0006</f>
-        <v>0.0006</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="18">
+        <f>0.0006</f>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="C6" s="18">
+        <f>0.0006</f>
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="18" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="C7" s="18" t="n">
-        <v>0.0001</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="18">
+        <v>1E-4</v>
+      </c>
+      <c r="C7" s="18">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="18" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="C8" s="18" t="n">
-        <v>0.0001</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="18">
+        <v>1E-4</v>
+      </c>
+      <c r="C8" s="18">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="18" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="C9" s="18" t="n">
-        <v>0.0015</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="18">
+        <v>1.5E-3</v>
+      </c>
+      <c r="C9" s="18">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="18" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="C10" s="18" t="n">
-        <v>0.0001</v>
+      <c r="B10" s="18">
+        <v>1E-4</v>
+      </c>
+      <c r="C10" s="18">
+        <v>1E-4</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="8.6"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" customWidth="1"/>
+    <col min="14" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="true" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>33</v>
       </c>
@@ -3636,142 +3789,137 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" s="20" customFormat="true" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="21" t="n">
+      <c r="B2" s="21">
         <v>1.121</v>
       </c>
-      <c r="C2" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23" t="n">
-        <v>0.1601</v>
-      </c>
-      <c r="E2" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="23" t="n">
+      <c r="C2" s="22">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0.16009999999999999</v>
+      </c>
+      <c r="E2" s="22">
+        <v>0</v>
+      </c>
+      <c r="F2" s="23">
         <v>0.4209</v>
       </c>
-      <c r="G2" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="23" t="n">
-        <v>0.6359</v>
-      </c>
-      <c r="I2" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="24" t="n">
-        <v>2.5904</v>
-      </c>
-      <c r="K2" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="24" t="n">
-        <v>2.9387</v>
-      </c>
-      <c r="M2" s="22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" s="20" customFormat="true" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G2" s="22">
+        <v>0</v>
+      </c>
+      <c r="H2" s="23">
+        <v>0.63590000000000002</v>
+      </c>
+      <c r="I2" s="22">
+        <v>0</v>
+      </c>
+      <c r="J2" s="24">
+        <v>2.5903999999999998</v>
+      </c>
+      <c r="K2" s="22">
+        <v>0</v>
+      </c>
+      <c r="L2" s="24">
+        <v>2.9386999999999999</v>
+      </c>
+      <c r="M2" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="21" t="n">
+      <c r="B3" s="21">
         <v>1.121</v>
       </c>
-      <c r="C3" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="23" t="n">
-        <v>0.1601</v>
-      </c>
-      <c r="E3" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="23" t="n">
+      <c r="C3" s="22">
+        <v>0</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0.16009999999999999</v>
+      </c>
+      <c r="E3" s="22">
+        <v>0</v>
+      </c>
+      <c r="F3" s="23">
         <v>0.4209</v>
       </c>
-      <c r="G3" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="23" t="n">
-        <v>0.6359</v>
-      </c>
-      <c r="I3" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="24" t="n">
-        <v>2.5904</v>
-      </c>
-      <c r="K3" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="24" t="n">
-        <v>2.9387</v>
-      </c>
-      <c r="M3" s="22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" s="20" customFormat="true" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G3" s="22">
+        <v>0</v>
+      </c>
+      <c r="H3" s="23">
+        <v>0.63590000000000002</v>
+      </c>
+      <c r="I3" s="22">
+        <v>0</v>
+      </c>
+      <c r="J3" s="24">
+        <v>2.5903999999999998</v>
+      </c>
+      <c r="K3" s="22">
+        <v>0</v>
+      </c>
+      <c r="L3" s="24">
+        <v>2.9386999999999999</v>
+      </c>
+      <c r="M3" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="21" t="n">
-        <f aca="false">2*B3</f>
+      <c r="B4" s="21">
+        <f>2*B3</f>
         <v>2.242</v>
       </c>
-      <c r="C4" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="23" t="n">
-        <f aca="false">2*D3</f>
-        <v>0.3202</v>
-      </c>
-      <c r="E4" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="23" t="n">
-        <f aca="false">2*F3</f>
-        <v>0.8418</v>
-      </c>
-      <c r="G4" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="23" t="n">
-        <f aca="false">2*H3</f>
+      <c r="C4" s="22">
+        <v>0</v>
+      </c>
+      <c r="D4" s="23">
+        <f>2*D3</f>
+        <v>0.32019999999999998</v>
+      </c>
+      <c r="E4" s="22">
+        <v>0</v>
+      </c>
+      <c r="F4" s="23">
+        <f>2*F3</f>
+        <v>0.84179999999999999</v>
+      </c>
+      <c r="G4" s="22">
+        <v>0</v>
+      </c>
+      <c r="H4" s="23">
+        <f>2*H3</f>
         <v>1.2718</v>
       </c>
-      <c r="I4" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="24" t="n">
-        <f aca="false">2*J3</f>
-        <v>5.1808</v>
-      </c>
-      <c r="K4" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="24" t="n">
-        <f aca="false">2*L3</f>
-        <v>5.8774</v>
-      </c>
-      <c r="M4" s="22" t="n">
+      <c r="I4" s="22">
+        <v>0</v>
+      </c>
+      <c r="J4" s="24">
+        <f>2*J3</f>
+        <v>5.1807999999999996</v>
+      </c>
+      <c r="K4" s="22">
+        <v>0</v>
+      </c>
+      <c r="L4" s="24">
+        <f>2*L3</f>
+        <v>5.8773999999999997</v>
+      </c>
+      <c r="M4" s="22">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>